--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25903962908076</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H2">
-        <v>1.25903962908076</v>
+        <v>3.896708</v>
       </c>
       <c r="I2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="J2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.85014691039663</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N2">
-        <v>8.85014691039663</v>
+        <v>26.766925</v>
       </c>
       <c r="O2">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="P2">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="Q2">
-        <v>11.14268568337601</v>
+        <v>11.58921008698889</v>
       </c>
       <c r="R2">
-        <v>11.14268568337601</v>
+        <v>104.3028907829</v>
       </c>
       <c r="S2">
-        <v>0.471121244072098</v>
+        <v>0.441751881160005</v>
       </c>
       <c r="T2">
-        <v>0.471121244072098</v>
+        <v>0.4417518811600051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25903962908076</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H3">
-        <v>1.25903962908076</v>
+        <v>3.896708</v>
       </c>
       <c r="I3">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="J3">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.52881520606776</v>
+        <v>5.613253666666666</v>
       </c>
       <c r="N3">
-        <v>5.52881520606776</v>
+        <v>16.839761</v>
       </c>
       <c r="O3">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="P3">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="Q3">
-        <v>6.960997446303618</v>
+        <v>7.291070156309778</v>
       </c>
       <c r="R3">
-        <v>6.960997446303618</v>
+        <v>65.619631406788</v>
       </c>
       <c r="S3">
-        <v>0.2943162779668074</v>
+        <v>0.2779174709098967</v>
       </c>
       <c r="T3">
-        <v>0.2943162779668074</v>
+        <v>0.2779174709098967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.385823070786684</v>
+        <v>0.5059576666666666</v>
       </c>
       <c r="H4">
-        <v>0.385823070786684</v>
+        <v>1.517873</v>
       </c>
       <c r="I4">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300983</v>
       </c>
       <c r="J4">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.85014691039663</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N4">
-        <v>8.85014691039663</v>
+        <v>26.766925</v>
       </c>
       <c r="O4">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="P4">
-        <v>0.6154927482744333</v>
+        <v>0.6138261687668722</v>
       </c>
       <c r="Q4">
-        <v>3.414590857882511</v>
+        <v>4.514310305613889</v>
       </c>
       <c r="R4">
-        <v>3.414590857882511</v>
+        <v>40.628792750525</v>
       </c>
       <c r="S4">
-        <v>0.1443715042023354</v>
+        <v>0.1720742876068672</v>
       </c>
       <c r="T4">
-        <v>0.1443715042023354</v>
+        <v>0.1720742876068672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.385823070786684</v>
+        <v>0.5059576666666666</v>
       </c>
       <c r="H5">
-        <v>0.385823070786684</v>
+        <v>1.517873</v>
       </c>
       <c r="I5">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300983</v>
       </c>
       <c r="J5">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.52881520606776</v>
+        <v>5.613253666666666</v>
       </c>
       <c r="N5">
-        <v>5.52881520606776</v>
+        <v>16.839761</v>
       </c>
       <c r="O5">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="P5">
-        <v>0.3845072517255667</v>
+        <v>0.3861738312331279</v>
       </c>
       <c r="Q5">
-        <v>2.133144460617176</v>
+        <v>2.840068727594777</v>
       </c>
       <c r="R5">
-        <v>2.133144460617176</v>
+        <v>25.560618548353</v>
       </c>
       <c r="S5">
-        <v>0.09019097375875931</v>
+        <v>0.1082563603232312</v>
       </c>
       <c r="T5">
-        <v>0.09019097375875931</v>
+        <v>0.1082563603232312</v>
       </c>
     </row>
   </sheetData>
